--- a/breeding_patterns - win, sum/Dam, Sire birth season/Seasonal_Births_ EP _ 4 yr.xlsx
+++ b/breeding_patterns - win, sum/Dam, Sire birth season/Seasonal_Births_ EP _ 4 yr.xlsx
@@ -20,25 +20,25 @@
     <t xml:space="preserve">BirthSeason</t>
   </si>
   <si>
-    <t xml:space="preserve">1996-1999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000-2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2004-2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-2023</t>
+    <t xml:space="preserve">1995-1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1999-2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003-2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-2022</t>
   </si>
   <si>
     <t xml:space="preserve">Summer</t>
@@ -407,25 +407,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2" t="n">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="D2" t="n">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="E2" t="n">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="F2" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H2" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -433,25 +433,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C3" t="n">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="D3" t="n">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="E3" t="n">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F3" t="n">
+        <v>52</v>
+      </c>
+      <c r="G3" t="n">
+        <v>17</v>
+      </c>
+      <c r="H3" t="n">
         <v>23</v>
-      </c>
-      <c r="G3" t="n">
-        <v>18</v>
-      </c>
-      <c r="H3" t="n">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -502,22 +502,22 @@
         <v>48</v>
       </c>
       <c r="C2" t="n">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="D2" t="n">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E2" t="n">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F2" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G2" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H2" t="n">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -528,22 +528,22 @@
         <v>53</v>
       </c>
       <c r="C3" t="n">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="D3" t="n">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="E3" t="n">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="F3" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -591,22 +591,22 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
+        <v>78</v>
+      </c>
+      <c r="C2" t="n">
         <v>94</v>
       </c>
-      <c r="C2" t="n">
-        <v>78</v>
-      </c>
       <c r="D2" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G2" t="n">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -617,25 +617,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C3" t="n">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D3" t="n">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E3" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F3" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G3" t="n">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -683,25 +683,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C2" t="n">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D2" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G2" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -709,25 +709,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D3" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G3" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H3" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
